--- a/Instances/K5017552_NonStationary_b2_fe25_en_rk50_ll2_l20_HTrue_c10.xlsx
+++ b/Instances/K5017552_NonStationary_b2_fe25_en_rk50_ll2_l20_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>12.77042643229167</v>
+        <v>16.021630859375</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1874,111 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>102</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>114</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>106</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1993,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,34 +2073,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2213,34 +2108,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>12.375</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2248,34 +2143,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>21.75</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2283,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>24.0625</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2318,7 +2213,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.875</v>
+        <v>23.90625</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2353,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6875</v>
+        <v>21.0703125</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2388,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.09375</v>
+        <v>28.0546875</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2423,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5625</v>
+        <v>26.044921875</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2458,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.9453125</v>
+        <v>27.392578125</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2493,7 +2388,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.33203125</v>
+        <v>27.9453125</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2528,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.052734375</v>
+        <v>27.722900390625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2555,111 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.400390625</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>28.4443359375</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>26.47412109375</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2040</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2700,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4080</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2708,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4080</v>
+        <v>4280</v>
       </c>
     </row>
   </sheetData>
